--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H2">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>6.812254660674555</v>
+        <v>5.432748571911555</v>
       </c>
       <c r="R2">
-        <v>61.310291946071</v>
+        <v>48.894737147204</v>
       </c>
       <c r="S2">
-        <v>0.08953999090312259</v>
+        <v>0.07287201082608399</v>
       </c>
       <c r="T2">
-        <v>0.08953999090312259</v>
+        <v>0.07287201082608401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H3">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q3">
-        <v>0.7365445623962222</v>
+        <v>0.5873916373982222</v>
       </c>
       <c r="R3">
-        <v>6.628901061566</v>
+        <v>5.286524736584</v>
       </c>
       <c r="S3">
-        <v>0.009681110983330694</v>
+        <v>0.007878960197227274</v>
       </c>
       <c r="T3">
-        <v>0.009681110983330694</v>
+        <v>0.007878960197227275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>117.038589</v>
       </c>
       <c r="I4">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J4">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>453.900109207101</v>
       </c>
       <c r="S4">
-        <v>0.662893787638124</v>
+        <v>0.6764861742178735</v>
       </c>
       <c r="T4">
-        <v>0.662893787638124</v>
+        <v>0.6764861742178736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>117.038589</v>
       </c>
       <c r="I5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,10 +756,10 @@
         <v>49.075918907946</v>
       </c>
       <c r="S5">
-        <v>0.07167242551128429</v>
+        <v>0.07314204150833373</v>
       </c>
       <c r="T5">
-        <v>0.07167242551128429</v>
+        <v>0.07314204150833374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H6">
         <v>26.482702</v>
       </c>
       <c r="I6">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J6">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>102.705453240718</v>
       </c>
       <c r="S6">
-        <v>0.1499951322522499</v>
+        <v>0.1530707257495391</v>
       </c>
       <c r="T6">
-        <v>0.1499951322522499</v>
+        <v>0.1530707257495391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H7">
         <v>26.482702</v>
       </c>
       <c r="I7">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J7">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -880,10 +880,10 @@
         <v>11.104567706428</v>
       </c>
       <c r="S7">
-        <v>0.01621755271188838</v>
+        <v>0.01655008750094238</v>
       </c>
       <c r="T7">
-        <v>0.01621755271188838</v>
+        <v>0.01655008750094239</v>
       </c>
     </row>
   </sheetData>
